--- a/medicine/Enfance/Huang_Bei_Jia/Huang_Bei_Jia.xlsx
+++ b/medicine/Enfance/Huang_Bei_Jia/Huang_Bei_Jia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Huang Bei Jia (chinois : 黄蓓佳) est une autrice chinoise de fiction. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huang Bei Jia est née en 1955 à Rugao, province du Jiangsu, en Chine. Elle a commencé à écrire en 1972 et ses premiers travaux ont été publiés en 1973, en se concentrant sur la vie et les émotions des intellectuels, à l'université et dans la société. Beaucoup de ses œuvres précédentes mettent en vedette des étudiantes, naviguant dans des relations émotionnelles et des attitudes envers la masculinité chinoise. Les œuvres représentatives comprennent Carnival Every Night, Midnight Cocktail et Century Romance[1]. Elle est par la suite devenue une autrice de renom pour les enfants et a été nommée auteur ou autrice chinois(e) pour l'année 2020 au prix Hans-Christian-Andersen[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huang Bei Jia est née en 1955 à Rugao, province du Jiangsu, en Chine. Elle a commencé à écrire en 1972 et ses premiers travaux ont été publiés en 1973, en se concentrant sur la vie et les émotions des intellectuels, à l'université et dans la société. Beaucoup de ses œuvres précédentes mettent en vedette des étudiantes, naviguant dans des relations émotionnelles et des attitudes envers la masculinité chinoise. Les œuvres représentatives comprennent Carnival Every Night, Midnight Cocktail et Century Romance. Elle est par la suite devenue une autrice de renom pour les enfants et a été nommée auteur ou autrice chinois(e) pour l'année 2020 au prix Hans-Christian-Andersen. 
 Huang est diplômée du département de littérature chinoise de l'Université de Pékin. Elle occupe un poste au Bureau des affaires étrangères de la province du Jiangsu. Elle est également directrice et vice-présidente de l'association des écrivains de la province du Jiangsu. Elle est membre de l'Association des écrivains chinois depuis 1984. 
-En 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[3].
+En 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Je veux être un enfant bienveillant a remporté un prix national exceptionnel de littérature pour enfants (Chine) et un prix de littérature pour enfants Soong Ching-ling.
 Aujourd'hui, je suis un porteur de drapeau a remporté un prix national de littérature pour enfants exceptionnelle (Chine) et un prix de littérature Bing Xin pour enfants.
 La voix et les doubles cercles rouges dans la composition ont été sélectionnés pour être des textes dans des manuels de langue chinoise.
-2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[3]</t>
+2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(Les titres traduits ci-dessous sont approximatifs, sauf si des détails sur la publication sont fournis.)[4] 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Les titres traduits ci-dessous sont approximatifs, sauf si des détails sur la publication sont fournis.) 
 《雨巷》 - Lane in the Rain (première publication en 1981)
 《去年 冬天 在 郊外》 - L'hiver à la périphérie (première publication en 1982)
 《玫瑰 房间》 - Rose Room (première publication en 1984)
